--- a/Documents/maxClutchTorque.xlsx
+++ b/Documents/maxClutchTorque.xlsx
@@ -243,64 +243,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6171875000000006E-2</c:v>
+                  <c:v>4.6874999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5740969908004817E-2</c:v>
+                  <c:v>1.8749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4031527460958808E-2</c:v>
+                  <c:v>4.2187499999999982E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12937500000000002</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18080705911814704</c:v>
+                  <c:v>0.1171875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23767705160443015</c:v>
+                  <c:v>0.16874999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29950731638535866</c:v>
+                  <c:v>0.22968749999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36592775926403837</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.436640625</c:v>
+                  <c:v>0.37968750000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51139959035535509</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58999645684681601</c:v>
+                  <c:v>0.56718749999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67225221968767024</c:v>
+                  <c:v>0.67499999999999971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75801081892762456</c:v>
+                  <c:v>0.79218749999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84713461772428744</c:v>
+                  <c:v>0.91874999999999973</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93950103827922093</c:v>
+                  <c:v>1.0546875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0349999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0349999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0349999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0349999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0349999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,64 +420,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9988516102411043E-4</c:v>
+                  <c:v>4.5473087190399774E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.962211679871484E-3</c:v>
+                  <c:v>7.1863937914997148E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3167281187711549E-2</c:v>
+                  <c:v>3.5638733308502495E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0541294589035289E-2</c:v>
+                  <c:v>1.0942352531273654E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8004185336105456E-2</c:v>
+                  <c:v>2.5735931288071476E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.684576729383132E-2</c:v>
+                  <c:v>5.0976299468274006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14763715075730846</c:v>
+                  <c:v>8.9437912312400961E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21018242850066124</c:v>
+                  <c:v>0.14323725421878941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28351340498968364</c:v>
+                  <c:v>0.21348084353158842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36592775926403831</c:v>
+                  <c:v>0.29999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45506862717677227</c:v>
+                  <c:v>0.40120220157986553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54804129458903528</c:v>
+                  <c:v>0.51405764746872629</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64156063656028417</c:v>
+                  <c:v>0.63422651199985702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73212123223038017</c:v>
+                  <c:v>0.75631860221924152</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81618082523635327</c:v>
+                  <c:v>0.87426406871192841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89034705480479026</c:v>
+                  <c:v>0.98176274578121059</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95155719430770436</c:v>
+                  <c:v>1.0727717023568915</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99724101252071573</c:v>
+                  <c:v>1.1419864589333342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0254577972132393</c:v>
+                  <c:v>1.1852714818013557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0349999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,21 +1659,21 @@
         <v>0.8</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
         <f>ACOS(1-2*Table1[factor]^(-1/Table1[exp]))/PI()</f>
-        <v>0.90377401048767614</v>
+        <v>0.80924320333926547</v>
       </c>
       <c r="J2">
         <v>0.9</v>
       </c>
       <c r="K2">
         <f>(0.5*(1-COS(PI()*Table1[c1])))^-Table1[exp]</f>
-        <v>1.0378634522700196</v>
+        <v>1.0508005507533364</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,11 +1682,11 @@
       </c>
       <c r="B3">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.6171875000000006E-2</v>
+        <v>4.6874999999999998E-3</v>
       </c>
       <c r="C3">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>4.9988516102411043E-4</v>
+        <v>4.5473087190399774E-5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="B4">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>4.5740969908004817E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="C4">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>3.962211679871484E-3</v>
+        <v>7.1863937914997148E-4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="B5">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>8.4031527460958808E-2</v>
+        <v>4.2187499999999982E-2</v>
       </c>
       <c r="C5">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.3167281187711549E-2</v>
+        <v>3.5638733308502495E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="B6">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.12937500000000002</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C6">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>3.0541294589035289E-2</v>
+        <v>1.0942352531273654E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="B7">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.18080705911814704</v>
+        <v>0.1171875</v>
       </c>
       <c r="C7">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>5.8004185336105456E-2</v>
+        <v>2.5735931288071476E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1747,11 +1747,11 @@
       </c>
       <c r="B8">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.23767705160443015</v>
+        <v>0.16874999999999993</v>
       </c>
       <c r="C8">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>9.684576729383132E-2</v>
+        <v>5.0976299468274006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1760,11 +1760,11 @@
       </c>
       <c r="B9">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.29950731638535866</v>
+        <v>0.22968749999999993</v>
       </c>
       <c r="C9">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.14763715075730846</v>
+        <v>8.9437912312400961E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1773,11 +1773,11 @@
       </c>
       <c r="B10">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.36592775926403837</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.21018242850066124</v>
+        <v>0.14323725421878941</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1786,11 +1786,11 @@
       </c>
       <c r="B11">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.436640625</v>
+        <v>0.37968750000000001</v>
       </c>
       <c r="C11">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.28351340498968364</v>
+        <v>0.21348084353158842</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="B12">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.51139959035535509</v>
+        <v>0.46875</v>
       </c>
       <c r="C12">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.36592775926403831</v>
+        <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="B13">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.58999645684681601</v>
+        <v>0.56718749999999996</v>
       </c>
       <c r="C13">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.45506862717677227</v>
+        <v>0.40120220157986553</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,11 +1825,11 @@
       </c>
       <c r="B14">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.67225221968767024</v>
+        <v>0.67499999999999971</v>
       </c>
       <c r="C14">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.54804129458903528</v>
+        <v>0.51405764746872629</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1838,11 +1838,11 @@
       </c>
       <c r="B15">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.75801081892762456</v>
+        <v>0.79218749999999993</v>
       </c>
       <c r="C15">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.64156063656028417</v>
+        <v>0.63422651199985702</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="B16">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.84713461772428744</v>
+        <v>0.91874999999999973</v>
       </c>
       <c r="C16">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.73212123223038017</v>
+        <v>0.75631860221924152</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,11 +1864,11 @@
       </c>
       <c r="B17">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.93950103827922093</v>
+        <v>1.0546875</v>
       </c>
       <c r="C17">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.81618082523635327</v>
+        <v>0.87426406871192841</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,11 +1877,11 @@
       </c>
       <c r="B18">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C18">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.89034705480479026</v>
+        <v>0.98176274578121059</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,11 +1890,11 @@
       </c>
       <c r="B19">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C19">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.95155719430770436</v>
+        <v>1.0727717023568915</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="B20">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C20">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.99724101252071573</v>
+        <v>1.1419864589333342</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,11 +1916,11 @@
       </c>
       <c r="B21">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C21">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.0254577972132393</v>
+        <v>1.1852714818013557</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,11 +1929,11 @@
       </c>
       <c r="B22">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C22">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.0349999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/maxClutchTorque.xlsx
+++ b/Documents/maxClutchTorque.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="0" windowWidth="27345" windowHeight="14595"/>
+    <workbookView xWindow="4365" yWindow="0" windowWidth="27345" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,49 +243,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6874999999999998E-3</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8749999999999999E-2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2187499999999982E-2</c:v>
+                  <c:v>0.22499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1171875</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16874999999999993</c:v>
+                  <c:v>0.4499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22968749999999993</c:v>
+                  <c:v>0.52499999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37968750000000001</c:v>
+                  <c:v>0.67499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56718749999999996</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67499999999999971</c:v>
+                  <c:v>0.8999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79218749999999993</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91874999999999973</c:v>
+                  <c:v>1.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0546875</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.2</c:v>
@@ -420,61 +420,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5473087190399774E-5</c:v>
+                  <c:v>7.3869956429173378E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1863937914997148E-4</c:v>
+                  <c:v>2.9366090222907881E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5638733308502495E-3</c:v>
+                  <c:v>6.5396085486979255E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0942352531273654E-2</c:v>
+                  <c:v>0.11458980337503152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5735931288071476E-2</c:v>
+                  <c:v>0.17573593128807144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0976299468274006E-2</c:v>
+                  <c:v>0.2473288486245161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9437912312400961E-2</c:v>
+                  <c:v>0.32760570015627194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14323725421878941</c:v>
+                  <c:v>0.41458980337503154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21348084353158842</c:v>
+                  <c:v>0.50613932097586145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29999999999999993</c:v>
+                  <c:v>0.59999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40120220157986553</c:v>
+                  <c:v>0.6938606790241385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51405764746872629</c:v>
+                  <c:v>0.78541019662496847</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63422651199985702</c:v>
+                  <c:v>0.87239429984372807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75631860221924152</c:v>
+                  <c:v>0.95267115137548375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87426406871192841</c:v>
+                  <c:v>1.0242640687119284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98176274578121059</c:v>
+                  <c:v>1.0854101966249685</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0727717023568915</c:v>
+                  <c:v>1.1346039145130207</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1419864589333342</c:v>
+                  <c:v>1.1706339097770921</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1852714818013557</c:v>
+                  <c:v>1.1926130043570826</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.2</c:v>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,21 +1659,21 @@
         <v>0.8</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1.2</v>
       </c>
       <c r="I2">
         <f>ACOS(1-2*Table1[factor]^(-1/Table1[exp]))/PI()</f>
-        <v>0.80924320333926547</v>
+        <v>0.7322795271987701</v>
       </c>
       <c r="J2">
         <v>0.9</v>
       </c>
       <c r="K2">
         <f>(0.5*(1-COS(PI()*Table1[c1])))^-Table1[exp]</f>
-        <v>1.0508005507533364</v>
+        <v>1.0250856309369165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,11 +1682,11 @@
       </c>
       <c r="B3">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>4.6874999999999998E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C3">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>4.5473087190399774E-5</v>
+        <v>7.3869956429173378E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="B4">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.8749999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C4">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>7.1863937914997148E-4</v>
+        <v>2.9366090222907881E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="B5">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>4.2187499999999982E-2</v>
+        <v>0.22499999999999995</v>
       </c>
       <c r="C5">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>3.5638733308502495E-3</v>
+        <v>6.5396085486979255E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="B6">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.0942352531273654E-2</v>
+        <v>0.11458980337503152</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="B7">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.1171875</v>
+        <v>0.375</v>
       </c>
       <c r="C7">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>2.5735931288071476E-2</v>
+        <v>0.17573593128807144</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1747,11 +1747,11 @@
       </c>
       <c r="B8">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.16874999999999993</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="C8">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>5.0976299468274006E-2</v>
+        <v>0.2473288486245161</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1760,11 +1760,11 @@
       </c>
       <c r="B9">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.22968749999999993</v>
+        <v>0.52499999999999991</v>
       </c>
       <c r="C9">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>8.9437912312400961E-2</v>
+        <v>0.32760570015627194</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1773,11 +1773,11 @@
       </c>
       <c r="B10">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.14323725421878941</v>
+        <v>0.41458980337503154</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1786,11 +1786,11 @@
       </c>
       <c r="B11">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.37968750000000001</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="C11">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.21348084353158842</v>
+        <v>0.50613932097586145</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="B12">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.46875</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.29999999999999993</v>
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="B13">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.56718749999999996</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C13">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.40120220157986553</v>
+        <v>0.6938606790241385</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,11 +1825,11 @@
       </c>
       <c r="B14">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.67499999999999971</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="C14">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.51405764746872629</v>
+        <v>0.78541019662496847</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1838,11 +1838,11 @@
       </c>
       <c r="B15">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.79218749999999993</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C15">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.63422651199985702</v>
+        <v>0.87239429984372807</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="B16">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>0.91874999999999973</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="C16">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.75631860221924152</v>
+        <v>0.95267115137548375</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,11 +1864,11 @@
       </c>
       <c r="B17">
         <f>IF(Table2[[#This Row],[cp]]&gt;=Table1[to],1,((Table2[[#This Row],[cp]]-Table1[from])/(Table1[to]-Table1[from]))^Table1[exp])*Table1[factor]</f>
-        <v>1.0546875</v>
+        <v>1.125</v>
       </c>
       <c r="C17">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.87426406871192841</v>
+        <v>1.0242640687119284</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C18">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>0.98176274578121059</v>
+        <v>1.0854101966249685</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="C19">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.0727717023568915</v>
+        <v>1.1346039145130207</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C20">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.1419864589333342</v>
+        <v>1.1706339097770921</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C21">
         <f>(0.5*(1-COS(Table2[[#This Row],[cp]]*PI())))^Table1[exp]*Table1[factor]</f>
-        <v>1.1852714818013557</v>
+        <v>1.1926130043570826</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
